--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Arf1-Insr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Arf1-Insr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.4995407078799</v>
+        <v>31.60456166666667</v>
       </c>
       <c r="H2">
-        <v>24.4995407078799</v>
+        <v>94.81368499999999</v>
       </c>
       <c r="I2">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="J2">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N2">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O2">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P2">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q2">
-        <v>227.8842497854921</v>
+        <v>404.2328680357016</v>
       </c>
       <c r="R2">
-        <v>227.8842497854921</v>
+        <v>3638.095812321314</v>
       </c>
       <c r="S2">
-        <v>0.01090739783879187</v>
+        <v>0.01638434321185823</v>
       </c>
       <c r="T2">
-        <v>0.01090739783879187</v>
+        <v>0.01638434321185823</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.4995407078799</v>
+        <v>31.60456166666667</v>
       </c>
       <c r="H3">
-        <v>24.4995407078799</v>
+        <v>94.81368499999999</v>
       </c>
       <c r="I3">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="J3">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N3">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O3">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P3">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q3">
-        <v>88.71185284489935</v>
+        <v>114.68966741392</v>
       </c>
       <c r="R3">
-        <v>88.71185284489935</v>
+        <v>1032.20700672528</v>
       </c>
       <c r="S3">
-        <v>0.004246083144870677</v>
+        <v>0.004648594961846536</v>
       </c>
       <c r="T3">
-        <v>0.004246083144870677</v>
+        <v>0.004648594961846535</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.4995407078799</v>
+        <v>31.60456166666667</v>
       </c>
       <c r="H4">
-        <v>24.4995407078799</v>
+        <v>94.81368499999999</v>
       </c>
       <c r="I4">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="J4">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N4">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O4">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P4">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q4">
-        <v>152.7915850986077</v>
+        <v>216.8005296571367</v>
       </c>
       <c r="R4">
-        <v>152.7915850986077</v>
+        <v>1951.20476691423</v>
       </c>
       <c r="S4">
-        <v>0.007313180295079067</v>
+        <v>0.008787346520524535</v>
       </c>
       <c r="T4">
-        <v>0.007313180295079067</v>
+        <v>0.008787346520524535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.4995407078799</v>
+        <v>31.60456166666667</v>
       </c>
       <c r="H5">
-        <v>24.4995407078799</v>
+        <v>94.81368499999999</v>
       </c>
       <c r="I5">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="J5">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N5">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O5">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P5">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q5">
-        <v>263.4627380790809</v>
+        <v>345.1255638079844</v>
       </c>
       <c r="R5">
-        <v>263.4627380790809</v>
+        <v>3106.130074271859</v>
       </c>
       <c r="S5">
-        <v>0.01261031818842666</v>
+        <v>0.01398860937779231</v>
       </c>
       <c r="T5">
-        <v>0.01261031818842666</v>
+        <v>0.0139886093777923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.4995407078799</v>
+        <v>31.60456166666667</v>
       </c>
       <c r="H6">
-        <v>24.4995407078799</v>
+        <v>94.81368499999999</v>
       </c>
       <c r="I6">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="J6">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N6">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O6">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P6">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q6">
-        <v>382.2495404608571</v>
+        <v>503.4267135159161</v>
       </c>
       <c r="R6">
-        <v>382.2495404608571</v>
+        <v>4530.840421643245</v>
       </c>
       <c r="S6">
-        <v>0.0182959016054271</v>
+        <v>0.02040486241592337</v>
       </c>
       <c r="T6">
-        <v>0.0182959016054271</v>
+        <v>0.02040486241592337</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.4995407078799</v>
+        <v>31.60456166666667</v>
       </c>
       <c r="H7">
-        <v>24.4995407078799</v>
+        <v>94.81368499999999</v>
       </c>
       <c r="I7">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="J7">
-        <v>0.06128183783502161</v>
+        <v>0.07491217735960552</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N7">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O7">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P7">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q7">
-        <v>165.2389236213126</v>
+        <v>263.9503638616634</v>
       </c>
       <c r="R7">
-        <v>165.2389236213126</v>
+        <v>2375.55327475497</v>
       </c>
       <c r="S7">
-        <v>0.007908956762426244</v>
+        <v>0.01069842087166055</v>
       </c>
       <c r="T7">
-        <v>0.007908956762426244</v>
+        <v>0.01069842087166055</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>101.454409900865</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H8">
-        <v>101.454409900865</v>
+        <v>305.170493</v>
       </c>
       <c r="I8">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="J8">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N8">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O8">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P8">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q8">
-        <v>943.6855312251741</v>
+        <v>1301.07740908139</v>
       </c>
       <c r="R8">
-        <v>943.6855312251741</v>
+        <v>11709.6966817325</v>
       </c>
       <c r="S8">
-        <v>0.04516834109190778</v>
+        <v>0.05273519424378433</v>
       </c>
       <c r="T8">
-        <v>0.04516834109190778</v>
+        <v>0.05273519424378432</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>101.454409900865</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H9">
-        <v>101.454409900865</v>
+        <v>305.170493</v>
       </c>
       <c r="I9">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="J9">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N9">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O9">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P9">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q9">
-        <v>367.3623431926974</v>
+        <v>369.1439937885759</v>
       </c>
       <c r="R9">
-        <v>367.3623431926974</v>
+        <v>3322.295944097184</v>
       </c>
       <c r="S9">
-        <v>0.01758334431609605</v>
+        <v>0.01496212299167598</v>
       </c>
       <c r="T9">
-        <v>0.01758334431609605</v>
+        <v>0.01496212299167597</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>101.454409900865</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H10">
-        <v>101.454409900865</v>
+        <v>305.170493</v>
       </c>
       <c r="I10">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="J10">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N10">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O10">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P10">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q10">
-        <v>632.7212533829771</v>
+        <v>697.8014251648326</v>
       </c>
       <c r="R10">
-        <v>632.7212533829771</v>
+        <v>6280.212826483493</v>
       </c>
       <c r="S10">
-        <v>0.03028442043802243</v>
+        <v>0.02828324697885445</v>
       </c>
       <c r="T10">
-        <v>0.03028442043802243</v>
+        <v>0.02828324697885444</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>101.454409900865</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H11">
-        <v>101.454409900865</v>
+        <v>305.170493</v>
       </c>
       <c r="I11">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="J11">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N11">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O11">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P11">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q11">
-        <v>1091.018682406654</v>
+        <v>1110.83266570839</v>
       </c>
       <c r="R11">
-        <v>1091.018682406654</v>
+        <v>9997.493991375504</v>
       </c>
       <c r="S11">
-        <v>0.05222026019685671</v>
+        <v>0.04502420531598683</v>
       </c>
       <c r="T11">
-        <v>0.05222026019685671</v>
+        <v>0.04502420531598681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>101.454409900865</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H12">
-        <v>101.454409900865</v>
+        <v>305.170493</v>
       </c>
       <c r="I12">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="J12">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N12">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O12">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P12">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q12">
-        <v>1582.923615782715</v>
+        <v>1620.346032885673</v>
       </c>
       <c r="R12">
-        <v>1582.923615782715</v>
+        <v>14583.11429597106</v>
       </c>
       <c r="S12">
-        <v>0.07576468159608714</v>
+        <v>0.06567577162584183</v>
       </c>
       <c r="T12">
-        <v>0.07576468159608714</v>
+        <v>0.06567577162584183</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>101.454409900865</v>
+        <v>101.7234976666667</v>
       </c>
       <c r="H13">
-        <v>101.454409900865</v>
+        <v>305.170493</v>
       </c>
       <c r="I13">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="J13">
-        <v>0.2537726224880991</v>
+        <v>0.2411148358650363</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N13">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O13">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P13">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q13">
-        <v>684.2666027311451</v>
+        <v>849.5594561818075</v>
       </c>
       <c r="R13">
-        <v>684.2666027311451</v>
+        <v>7646.035105636266</v>
       </c>
       <c r="S13">
-        <v>0.03275157484912896</v>
+        <v>0.03443429470889292</v>
       </c>
       <c r="T13">
-        <v>0.03275157484912896</v>
+        <v>0.03443429470889291</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>65.1892395120903</v>
+        <v>75.55512366666666</v>
       </c>
       <c r="H14">
-        <v>65.1892395120903</v>
+        <v>226.665371</v>
       </c>
       <c r="I14">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="J14">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N14">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O14">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P14">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q14">
-        <v>606.3624260319859</v>
+        <v>966.3751915528475</v>
       </c>
       <c r="R14">
-        <v>606.3624260319859</v>
+        <v>8697.376723975629</v>
       </c>
       <c r="S14">
-        <v>0.02902278775936246</v>
+        <v>0.03916906333412922</v>
       </c>
       <c r="T14">
-        <v>0.02902278775936246</v>
+        <v>0.03916906333412922</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>65.1892395120903</v>
+        <v>75.55512366666666</v>
       </c>
       <c r="H15">
-        <v>65.1892395120903</v>
+        <v>226.665371</v>
       </c>
       <c r="I15">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="J15">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N15">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O15">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P15">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q15">
-        <v>236.0476178562573</v>
+        <v>274.1816860534719</v>
       </c>
       <c r="R15">
-        <v>236.0476178562573</v>
+        <v>2467.635174481248</v>
       </c>
       <c r="S15">
-        <v>0.01129812735755475</v>
+        <v>0.01111311623059135</v>
       </c>
       <c r="T15">
-        <v>0.01129812735755475</v>
+        <v>0.01111311623059135</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>65.1892395120903</v>
+        <v>75.55512366666666</v>
       </c>
       <c r="H16">
-        <v>65.1892395120903</v>
+        <v>226.665371</v>
       </c>
       <c r="I16">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="J16">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N16">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O16">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P16">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q16">
-        <v>406.5532229843583</v>
+        <v>518.2919795568686</v>
       </c>
       <c r="R16">
-        <v>406.5532229843583</v>
+        <v>4664.627816011817</v>
       </c>
       <c r="S16">
-        <v>0.01945916731809067</v>
+        <v>0.02100738051875373</v>
       </c>
       <c r="T16">
-        <v>0.01945916731809067</v>
+        <v>0.02100738051875373</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>65.1892395120903</v>
+        <v>75.55512366666666</v>
       </c>
       <c r="H17">
-        <v>65.1892395120903</v>
+        <v>226.665371</v>
       </c>
       <c r="I17">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="J17">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N17">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O17">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P17">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q17">
-        <v>701.0309189030741</v>
+        <v>825.0709163146749</v>
       </c>
       <c r="R17">
-        <v>701.0309189030741</v>
+        <v>7425.638246832074</v>
       </c>
       <c r="S17">
-        <v>0.03355397811374528</v>
+        <v>0.03344172662829603</v>
       </c>
       <c r="T17">
-        <v>0.03355397811374528</v>
+        <v>0.03344172662829602</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>65.1892395120903</v>
+        <v>75.55512366666666</v>
       </c>
       <c r="H18">
-        <v>65.1892395120903</v>
+        <v>226.665371</v>
       </c>
       <c r="I18">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="J18">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N18">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O18">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P18">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q18">
-        <v>1017.103020158847</v>
+        <v>1203.511948622141</v>
       </c>
       <c r="R18">
-        <v>1017.103020158847</v>
+        <v>10831.60753759927</v>
       </c>
       <c r="S18">
-        <v>0.04868237841953554</v>
+        <v>0.04878067664714462</v>
       </c>
       <c r="T18">
-        <v>0.04868237841953554</v>
+        <v>0.04878067664714462</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>65.1892395120903</v>
+        <v>75.55512366666666</v>
       </c>
       <c r="H19">
-        <v>65.1892395120903</v>
+        <v>226.665371</v>
       </c>
       <c r="I19">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="J19">
-        <v>0.1630608692628837</v>
+        <v>0.179088034323661</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N19">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O19">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P19">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q19">
-        <v>439.6735390719042</v>
+        <v>631.0102507912114</v>
       </c>
       <c r="R19">
-        <v>439.6735390719042</v>
+        <v>5679.092257120903</v>
       </c>
       <c r="S19">
-        <v>0.02104443029459498</v>
+        <v>0.02557607096474609</v>
       </c>
       <c r="T19">
-        <v>0.02104443029459498</v>
+        <v>0.02557607096474608</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>70.32815958759041</v>
+        <v>70.99828599999999</v>
       </c>
       <c r="H20">
-        <v>70.32815958759041</v>
+        <v>212.994858</v>
       </c>
       <c r="I20">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063055</v>
       </c>
       <c r="J20">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063056</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N20">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O20">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P20">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q20">
-        <v>654.1624627786458</v>
+        <v>908.0917203692378</v>
       </c>
       <c r="R20">
-        <v>654.1624627786458</v>
+        <v>8172.825483323141</v>
       </c>
       <c r="S20">
-        <v>0.03131067741384915</v>
+        <v>0.03680672105332693</v>
       </c>
       <c r="T20">
-        <v>0.03131067741384915</v>
+        <v>0.03680672105332693</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>70.32815958759041</v>
+        <v>70.99828599999999</v>
       </c>
       <c r="H21">
-        <v>70.32815958759041</v>
+        <v>212.994858</v>
       </c>
       <c r="I21">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063055</v>
       </c>
       <c r="J21">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063056</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N21">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O21">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P21">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q21">
-        <v>254.6554410377277</v>
+        <v>257.6453960722559</v>
       </c>
       <c r="R21">
-        <v>254.6554410377277</v>
+        <v>2318.808564650304</v>
       </c>
       <c r="S21">
-        <v>0.01218876780569999</v>
+        <v>0.01044286828212634</v>
       </c>
       <c r="T21">
-        <v>0.01218876780569999</v>
+        <v>0.01044286828212634</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>70.32815958759041</v>
+        <v>70.99828599999999</v>
       </c>
       <c r="H22">
-        <v>70.32815958759041</v>
+        <v>212.994858</v>
       </c>
       <c r="I22">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063055</v>
       </c>
       <c r="J22">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063056</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N22">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O22">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P22">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q22">
-        <v>438.6021398760198</v>
+        <v>487.0330483267959</v>
       </c>
       <c r="R22">
-        <v>438.6021398760198</v>
+        <v>4383.297434941163</v>
       </c>
       <c r="S22">
-        <v>0.02099314909686116</v>
+        <v>0.01974039532727704</v>
       </c>
       <c r="T22">
-        <v>0.02099314909686116</v>
+        <v>0.01974039532727704</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>70.32815958759041</v>
+        <v>70.99828599999999</v>
       </c>
       <c r="H23">
-        <v>70.32815958759041</v>
+        <v>212.994858</v>
       </c>
       <c r="I23">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063055</v>
       </c>
       <c r="J23">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063056</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N23">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O23">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P23">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q23">
-        <v>756.2937489293263</v>
+        <v>775.3097082499385</v>
       </c>
       <c r="R23">
-        <v>756.2937489293263</v>
+        <v>6977.787374249447</v>
       </c>
       <c r="S23">
-        <v>0.03619906514087094</v>
+        <v>0.03142480822299376</v>
       </c>
       <c r="T23">
-        <v>0.03619906514087094</v>
+        <v>0.03142480822299375</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>70.32815958759041</v>
+        <v>70.99828599999999</v>
       </c>
       <c r="H24">
-        <v>70.32815958759041</v>
+        <v>212.994858</v>
       </c>
       <c r="I24">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063055</v>
       </c>
       <c r="J24">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063056</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N24">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O24">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P24">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q24">
-        <v>1097.282067625365</v>
+        <v>1130.926420154741</v>
       </c>
       <c r="R24">
-        <v>1097.282067625365</v>
+        <v>10178.33778139267</v>
       </c>
       <c r="S24">
-        <v>0.05252004938572078</v>
+        <v>0.04583864420826102</v>
       </c>
       <c r="T24">
-        <v>0.05252004938572078</v>
+        <v>0.04583864420826102</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>70.32815958759041</v>
+        <v>70.99828599999999</v>
       </c>
       <c r="H25">
-        <v>70.32815958759041</v>
+        <v>212.994858</v>
       </c>
       <c r="I25">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063055</v>
       </c>
       <c r="J25">
-        <v>0.1759150884692317</v>
+        <v>0.1682869786063056</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N25">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O25">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P25">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q25">
-        <v>474.333357065083</v>
+        <v>592.9531192650441</v>
       </c>
       <c r="R25">
-        <v>474.333357065083</v>
+        <v>5336.578073385396</v>
       </c>
       <c r="S25">
-        <v>0.02270337962622969</v>
+        <v>0.02403354151232045</v>
       </c>
       <c r="T25">
-        <v>0.02270337962622969</v>
+        <v>0.02403354151232045</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>92.04377804750619</v>
+        <v>93.51473466666668</v>
       </c>
       <c r="H26">
-        <v>92.04377804750619</v>
+        <v>280.544204</v>
       </c>
       <c r="I26">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367576</v>
       </c>
       <c r="J26">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367575</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N26">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O26">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P26">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q26">
-        <v>856.1518584318563</v>
+        <v>1196.084596793311</v>
       </c>
       <c r="R26">
-        <v>856.1518584318563</v>
+        <v>10764.7613711398</v>
       </c>
       <c r="S26">
-        <v>0.04097865007839513</v>
+        <v>0.0484796316526836</v>
       </c>
       <c r="T26">
-        <v>0.04097865007839513</v>
+        <v>0.04847963165268359</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>92.04377804750619</v>
+        <v>93.51473466666668</v>
       </c>
       <c r="H27">
-        <v>92.04377804750619</v>
+        <v>280.544204</v>
       </c>
       <c r="I27">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367576</v>
       </c>
       <c r="J27">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367575</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N27">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O27">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P27">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q27">
-        <v>333.2868232428815</v>
+        <v>339.355246572928</v>
       </c>
       <c r="R27">
-        <v>333.2868232428815</v>
+        <v>3054.197219156352</v>
       </c>
       <c r="S27">
-        <v>0.01595236168782669</v>
+        <v>0.01375472721358364</v>
       </c>
       <c r="T27">
-        <v>0.01595236168782669</v>
+        <v>0.01375472721358364</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>92.04377804750619</v>
+        <v>93.51473466666668</v>
       </c>
       <c r="H28">
-        <v>92.04377804750619</v>
+        <v>280.544204</v>
       </c>
       <c r="I28">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367576</v>
       </c>
       <c r="J28">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367575</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N28">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O28">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P28">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q28">
-        <v>574.0317712086572</v>
+        <v>641.4910676601147</v>
       </c>
       <c r="R28">
-        <v>574.0317712086572</v>
+        <v>5773.419608941032</v>
       </c>
       <c r="S28">
-        <v>0.02747532094285958</v>
+        <v>0.02600087882748916</v>
       </c>
       <c r="T28">
-        <v>0.02747532094285958</v>
+        <v>0.02600087882748915</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>92.04377804750619</v>
+        <v>93.51473466666668</v>
       </c>
       <c r="H29">
-        <v>92.04377804750619</v>
+        <v>280.544204</v>
       </c>
       <c r="I29">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367576</v>
       </c>
       <c r="J29">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367575</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N29">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O29">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P29">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q29">
-        <v>989.818791980027</v>
+        <v>1021.191999641847</v>
       </c>
       <c r="R29">
-        <v>989.818791980027</v>
+        <v>9190.727996776624</v>
       </c>
       <c r="S29">
-        <v>0.04737645257450283</v>
+        <v>0.04139089502701723</v>
       </c>
       <c r="T29">
-        <v>0.04737645257450283</v>
+        <v>0.04139089502701722</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>92.04377804750619</v>
+        <v>93.51473466666668</v>
       </c>
       <c r="H30">
-        <v>92.04377804750619</v>
+        <v>280.544204</v>
       </c>
       <c r="I30">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367576</v>
       </c>
       <c r="J30">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367575</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N30">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O30">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P30">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q30">
-        <v>1436.095977490063</v>
+        <v>1489.58925724339</v>
       </c>
       <c r="R30">
-        <v>1436.095977490063</v>
+        <v>13406.30331519051</v>
       </c>
       <c r="S30">
-        <v>0.06873695824049895</v>
+        <v>0.06037594556318257</v>
       </c>
       <c r="T30">
-        <v>0.06873695824049895</v>
+        <v>0.06037594556318256</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>92.04377804750619</v>
+        <v>93.51473466666668</v>
       </c>
       <c r="H31">
-        <v>92.04377804750619</v>
+        <v>280.544204</v>
       </c>
       <c r="I31">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367576</v>
       </c>
       <c r="J31">
-        <v>0.2302333724246423</v>
+        <v>0.2216576348367575</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N31">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O31">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P31">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q31">
-        <v>620.7959158073977</v>
+        <v>781.0027078378056</v>
       </c>
       <c r="R31">
-        <v>620.7959158073977</v>
+        <v>7029.02437054025</v>
       </c>
       <c r="S31">
-        <v>0.02971362890055911</v>
+        <v>0.03165555655280138</v>
       </c>
       <c r="T31">
-        <v>0.02971362890055911</v>
+        <v>0.03165555655280137</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>46.2695649589919</v>
+        <v>48.49196966666667</v>
       </c>
       <c r="H32">
-        <v>46.2695649589919</v>
+        <v>145.475909</v>
       </c>
       <c r="I32">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="J32">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>9.301572323443461</v>
+        <v>12.790333</v>
       </c>
       <c r="N32">
-        <v>9.301572323443461</v>
+        <v>38.370999</v>
       </c>
       <c r="O32">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="P32">
-        <v>0.1779874465931643</v>
+        <v>0.2187140167239762</v>
       </c>
       <c r="Q32">
-        <v>430.3797048403284</v>
+        <v>620.2284398625657</v>
       </c>
       <c r="R32">
-        <v>430.3797048403284</v>
+        <v>5582.055958763091</v>
       </c>
       <c r="S32">
-        <v>0.02059959241085795</v>
+        <v>0.02513906322819386</v>
       </c>
       <c r="T32">
-        <v>0.02059959241085795</v>
+        <v>0.02513906322819386</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>46.2695649589919</v>
+        <v>48.49196966666667</v>
       </c>
       <c r="H33">
-        <v>46.2695649589919</v>
+        <v>145.475909</v>
       </c>
       <c r="I33">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="J33">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>3.62095983360074</v>
+        <v>3.628896</v>
       </c>
       <c r="N33">
-        <v>3.62095983360074</v>
+        <v>10.886688</v>
       </c>
       <c r="O33">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692685</v>
       </c>
       <c r="P33">
-        <v>0.06928779055715766</v>
+        <v>0.06205392935692684</v>
       </c>
       <c r="Q33">
-        <v>167.5402362346899</v>
+        <v>175.972314755488</v>
       </c>
       <c r="R33">
-        <v>167.5402362346899</v>
+        <v>1583.750832799392</v>
       </c>
       <c r="S33">
-        <v>0.008019106245109512</v>
+        <v>0.007132499677102997</v>
       </c>
       <c r="T33">
-        <v>0.008019106245109512</v>
+        <v>0.007132499677102995</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>46.2695649589919</v>
+        <v>48.49196966666667</v>
       </c>
       <c r="H34">
-        <v>46.2695649589919</v>
+        <v>145.475909</v>
       </c>
       <c r="I34">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="J34">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>6.23650814194507</v>
+        <v>6.859786</v>
       </c>
       <c r="N34">
-        <v>6.23650814194507</v>
+        <v>20.579358</v>
       </c>
       <c r="O34">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="P34">
-        <v>0.1193368305103229</v>
+        <v>0.1173019771984746</v>
       </c>
       <c r="Q34">
-        <v>288.5605185910093</v>
+        <v>332.6445346318247</v>
       </c>
       <c r="R34">
-        <v>288.5605185910093</v>
+        <v>2993.800811686422</v>
       </c>
       <c r="S34">
-        <v>0.01381159241940999</v>
+        <v>0.01348272902557573</v>
       </c>
       <c r="T34">
-        <v>0.01381159241940999</v>
+        <v>0.01348272902557573</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>46.2695649589919</v>
+        <v>48.49196966666667</v>
       </c>
       <c r="H35">
-        <v>46.2695649589919</v>
+        <v>145.475909</v>
       </c>
       <c r="I35">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="J35">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>10.7537827431329</v>
+        <v>10.92011866666667</v>
       </c>
       <c r="N35">
-        <v>10.7537827431329</v>
+        <v>32.76035599999999</v>
       </c>
       <c r="O35">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="P35">
-        <v>0.2057757833956483</v>
+        <v>0.1867334506997697</v>
       </c>
       <c r="Q35">
-        <v>497.5728491882738</v>
+        <v>529.5380631404004</v>
       </c>
       <c r="R35">
-        <v>497.5728491882738</v>
+        <v>4765.842568263603</v>
       </c>
       <c r="S35">
-        <v>0.02381570918124595</v>
+        <v>0.02146320612768357</v>
       </c>
       <c r="T35">
-        <v>0.02381570918124595</v>
+        <v>0.02146320612768357</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>46.2695649589919</v>
+        <v>48.49196966666667</v>
       </c>
       <c r="H36">
-        <v>46.2695649589919</v>
+        <v>145.475909</v>
       </c>
       <c r="I36">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="J36">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>15.6023145502443</v>
+        <v>15.92892566666667</v>
       </c>
       <c r="N36">
-        <v>15.6023145502443</v>
+        <v>47.786777</v>
       </c>
       <c r="O36">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="P36">
-        <v>0.2985534091631188</v>
+        <v>0.2723837850550339</v>
       </c>
       <c r="Q36">
-        <v>721.9123065931531</v>
+        <v>772.4249802505882</v>
       </c>
       <c r="R36">
-        <v>721.9123065931531</v>
+        <v>6951.824822255293</v>
       </c>
       <c r="S36">
-        <v>0.03455343991584936</v>
+        <v>0.03130788459468049</v>
       </c>
       <c r="T36">
-        <v>0.03455343991584936</v>
+        <v>0.03130788459468049</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>46.2695649589919</v>
+        <v>48.49196966666667</v>
       </c>
       <c r="H37">
-        <v>46.2695649589919</v>
+        <v>145.475909</v>
       </c>
       <c r="I37">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="J37">
-        <v>0.1157362095201218</v>
+        <v>0.114940339008634</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>6.74457230000912</v>
+        <v>8.351654000000002</v>
       </c>
       <c r="N37">
-        <v>6.74457230000912</v>
+        <v>25.054962</v>
       </c>
       <c r="O37">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="P37">
-        <v>0.129058739780588</v>
+        <v>0.1428128409658187</v>
       </c>
       <c r="Q37">
-        <v>312.0684261558894</v>
+        <v>404.9881524344954</v>
       </c>
       <c r="R37">
-        <v>312.0684261558894</v>
+        <v>3644.893371910458</v>
       </c>
       <c r="S37">
-        <v>0.014936769347649</v>
+        <v>0.01641495635539733</v>
       </c>
       <c r="T37">
-        <v>0.014936769347649</v>
+        <v>0.01641495635539733</v>
       </c>
     </row>
   </sheetData>
